--- a/src/main/resources/assembly_template.xlsx
+++ b/src/main/resources/assembly_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panchaohui/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panchaohui/code/douson/mp-server/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF863B8-8F5F-054A-83EA-96E54A5DA3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A66C96D-C8E0-5644-8F9A-1B39F922A57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2080" yWindow="800" windowWidth="28160" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,7 +565,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -603,10 +603,10 @@
         <v>11</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>20</v>
@@ -649,11 +649,11 @@
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3">
         <v>45698</v>
-      </c>
-      <c r="I2" s="2">
-        <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>8</v>
@@ -696,11 +696,11 @@
       <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3">
         <v>45698</v>
-      </c>
-      <c r="I3" s="2">
-        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>8</v>
